--- a/ITパスポート/【ITパス】ページ数など.xlsx
+++ b/ITパスポート/【ITパス】ページ数など.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\3030855\Desktop\DX科\ITパスポート\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\3030855\Desktop\DX科\【授業関連】\ITパスポート\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{02DBEB37-9627-43F8-B0D8-EDD36F185EBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFE5FAE6-FB83-4F57-996F-0DC005E7D363}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{0EA07932-3154-4F5F-A971-BA510AD18CED}"/>
+    <workbookView xWindow="2295" yWindow="2295" windowWidth="9345" windowHeight="8040" xr2:uid="{0EA07932-3154-4F5F-A971-BA510AD18CED}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -458,7 +458,7 @@
   <dimension ref="A3:E25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
